--- a/test.xlsx
+++ b/test.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -149,15 +149,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -473,30 +476,30 @@
     <col min="3" max="3" style="16" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="17" width="29.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="14" width="76.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +537,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -574,7 +577,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -612,7 +615,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -624,6 +627,7 @@
       </c>
       <c r="D4" s="8">
         <f>"11/12/2030 09:00:00"</f>
+        <v>25568.875</v>
       </c>
       <c r="E4" s="9">
         <f>"Oi, "&amp;A4&amp;". Como você está?"</f>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="autozap"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>(31) 97228-0540</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Ciclano</t>
@@ -125,7 +122,7 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -133,9 +130,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -147,6 +141,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -457,32 +454,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="76.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="76.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -495,7 +492,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -534,9 +531,7 @@
         <f>NOW()</f>
         <v>25568.875</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="8">
         <f>"Oi, "&amp;A2&amp;". Como você está?"</f>
       </c>
@@ -564,7 +559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>31972280540</v>
@@ -572,9 +567,7 @@
       <c r="C3" s="6">
         <v>44470.375</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>"Oi, "&amp;A3&amp;". Como você está?"</f>
       </c>
@@ -602,17 +595,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>"02/10/2021 09:00"</f>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="8">
         <f>"Oi, "&amp;A4&amp;". Como você está?"</f>
       </c>
